--- a/data/elm_winter_2022/solutions/states.xlsx
+++ b/data/elm_winter_2022/solutions/states.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,14 +503,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vivian</t>
+          <t>Vivian Yu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -519,13 +519,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -534,10 +534,10 @@
         <v>16</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -568,19 +568,19 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -593,37 +593,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -632,14 +632,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aspen</t>
+          <t>Aspen Tong</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -651,10 +651,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -666,10 +666,10 @@
         <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -691,25 +691,25 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -722,16 +722,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -740,19 +740,19 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -820,27 +820,113 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jasmine Matchawate</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Niem Vo</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
         <v>0</v>
       </c>
     </row>
